--- a/site generator tool/NudibranchListV3.xlsx
+++ b/site generator tool/NudibranchListV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_Personal\Personal-Nudibranchs\Source\site generator tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04939E1-0B2E-4DBA-8327-2E1E280A9DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CDADD5-A0FF-4C4A-A1F2-FF7816D43D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD596A91-75E2-42BE-A2B0-9B9F1B7039FD}"/>
   </bookViews>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="BodyRatios">OFFSET([1]Lookups!$A$2,0,0,COUNTA([1]Lookups!$A:$A)-1,1)</definedName>
@@ -8048,29 +8047,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightDown">
-          <fgColor theme="9" tint="-0.24994659260841701"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightDown">
-          <fgColor theme="9" tint="-0.24994659260841701"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -10279,30 +10256,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="AddSpecies"/>
-      <sheetName val="Food"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Reference"/>
-      <sheetName val="Genera"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -10413,51 +10366,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F4D6E0A-C0D6-48AB-B417-7582F8308E2A}" name="Nudibranchdata" displayName="Nudibranchdata" ref="A1:AN182" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F4D6E0A-C0D6-48AB-B417-7582F8308E2A}" name="Nudibranchdata" displayName="Nudibranchdata" ref="A1:AN182" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:AN182" xr:uid="{6F4D6E0A-C0D6-48AB-B417-7582F8308E2A}"/>
   <tableColumns count="40">
-    <tableColumn id="42" xr3:uid="{A334914A-BB8B-4D60-926E-6E824BC5B406}" name="Reviewed" dataDxfId="59"/>
+    <tableColumn id="42" xr3:uid="{A334914A-BB8B-4D60-926E-6E824BC5B406}" name="Reviewed" dataDxfId="57"/>
     <tableColumn id="17" xr3:uid="{C7813290-0788-4C8C-A7D6-F07FEB3E8C01}" name="SortOrder"/>
-    <tableColumn id="1" xr3:uid="{27787204-430B-4F41-91A9-111F4B2D2801}" name="Order" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{4B2F631C-DBB3-42A7-B312-06DC8CCB3ADD}" name="Family" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{994A71AA-678C-4DB8-BBF4-8CE1EFE224CA}" name="Genus" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{8A4E9778-C7E4-4457-8B91-DD5E96D9D03C}" name="Species" dataDxfId="55"/>
-    <tableColumn id="33" xr3:uid="{D28A7F32-A449-4DB1-885D-211F920F52D0}" name="Column1" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{27787204-430B-4F41-91A9-111F4B2D2801}" name="Order" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{4B2F631C-DBB3-42A7-B312-06DC8CCB3ADD}" name="Family" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{994A71AA-678C-4DB8-BBF4-8CE1EFE224CA}" name="Genus" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{8A4E9778-C7E4-4457-8B91-DD5E96D9D03C}" name="Species" dataDxfId="53"/>
+    <tableColumn id="33" xr3:uid="{D28A7F32-A449-4DB1-885D-211F920F52D0}" name="Column1" dataDxfId="52">
       <calculatedColumnFormula>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1C4817E1-1583-4F2E-9144-6D0C110558A9}" name="Described" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{64E5A07F-FB6C-4340-ABDE-B07E3BC68E66}" name="English name" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{1C4817E1-1583-4F2E-9144-6D0C110558A9}" name="Described" dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{64E5A07F-FB6C-4340-ABDE-B07E3BC68E66}" name="English name" dataDxfId="50"/>
     <tableColumn id="7" xr3:uid="{2F0920FF-66BC-4964-A493-B82B0B226AC0}" name="WRMS ID"/>
-    <tableColumn id="37" xr3:uid="{98F9D86E-DC25-4515-A7CD-557383579B96}" name="L:W" dataDxfId="51"/>
-    <tableColumn id="38" xr3:uid="{DAE8D362-AB76-42A3-95C2-C123752B27A3}" name="Size(mm)" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{E606196C-80C9-41EB-987E-4A91182EEA7A}" name="Distribution" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{1CACED5B-8567-4B27-96FB-784B2223B035}" name="Depth" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{D17B8F80-A495-4A24-A946-CDDE5CE53996}" name="Description" dataDxfId="47"/>
-    <tableColumn id="34" xr3:uid="{6B6D921A-65C5-414D-AA79-044D51AE1B2D}" name="Similar species" dataDxfId="46"/>
-    <tableColumn id="35" xr3:uid="{F42D77B3-FE02-4DCA-BFFC-97B78E4F9ADC}" name="Distinctive attribute" dataDxfId="45"/>
-    <tableColumn id="39" xr3:uid="{7F19959E-EF96-454E-BD34-CAD8AB4447CB}" name="Habitat" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{65FC2232-1209-4E4E-BE67-CC3F521B9145}" name="SSF FS page" dataDxfId="43" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{0DBCAC12-4DCA-4940-922F-73AB29E0EE1A}" name="Photo" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{F5B3F764-EEC2-43BA-B5BB-9D0A4F7F170F}" name="Photographer" dataDxfId="41"/>
+    <tableColumn id="37" xr3:uid="{98F9D86E-DC25-4515-A7CD-557383579B96}" name="L:W" dataDxfId="49"/>
+    <tableColumn id="38" xr3:uid="{DAE8D362-AB76-42A3-95C2-C123752B27A3}" name="Size(mm)" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{E606196C-80C9-41EB-987E-4A91182EEA7A}" name="Distribution" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{1CACED5B-8567-4B27-96FB-784B2223B035}" name="Depth" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{D17B8F80-A495-4A24-A946-CDDE5CE53996}" name="Description" dataDxfId="45"/>
+    <tableColumn id="34" xr3:uid="{6B6D921A-65C5-414D-AA79-044D51AE1B2D}" name="Similar species" dataDxfId="44"/>
+    <tableColumn id="35" xr3:uid="{F42D77B3-FE02-4DCA-BFFC-97B78E4F9ADC}" name="Distinctive attribute" dataDxfId="43"/>
+    <tableColumn id="39" xr3:uid="{7F19959E-EF96-454E-BD34-CAD8AB4447CB}" name="Habitat" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{65FC2232-1209-4E4E-BE67-CC3F521B9145}" name="SSF FS page" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{0DBCAC12-4DCA-4940-922F-73AB29E0EE1A}" name="Photo" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{F5B3F764-EEC2-43BA-B5BB-9D0A4F7F170F}" name="Photographer" dataDxfId="39"/>
     <tableColumn id="5" xr3:uid="{6A44A4E3-3F8A-41D9-BBCF-A39F1C0720BA}" name="PhotoDate"/>
-    <tableColumn id="15" xr3:uid="{8FC04368-EB71-4B86-9C27-6B5C54F7CD2A}" name="Synonym names" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{8C970EFF-E802-4601-B1D9-36149E610850}" name="Body Type" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{4F9B6EB5-B995-453F-894C-164BB7468F01}" name="Background color" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{23754772-2B7D-4EC2-B897-86689E3D8E28}" name="Lines" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{A74606D9-3DEB-4255-9158-4D8510FA3004}" name="Spots/patches" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{2DF489E5-F49B-434E-8A91-4BBB3E80BBA6}" name="Rings/bands" dataDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{9A922BDF-1A86-4134-8E53-77A2695DB315}" name="Margins" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{24544C76-1A9B-4042-A37B-8C46D54A18B4}" name="Dorsal structures" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{DEA9FC8F-2DAD-4476-B6D3-46AAA0DF808B}" name="Dorsal structure detail" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{3DA8746C-46B3-482C-8432-60DC6B93B9BA}" name="Oral/cephalic Appendices" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{F40415DB-0F45-49D7-9743-FD7B82BEBE8A}" name="Rhinophore shapes" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{8F4673D6-9096-494E-AC46-46438BCC6B65}" name="Rhinophore-detail" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{1096E658-57AB-4EE2-B5E2-C022AF995304}" name="Gills shapes" dataDxfId="28"/>
-    <tableColumn id="29" xr3:uid="{AA4E92C5-8A6A-488A-BAEC-4F4EB975A8EE}" name="Gills" dataDxfId="27"/>
-    <tableColumn id="30" xr3:uid="{CFC01E3C-DD13-4F8B-9069-1F8E8918761F}" name="Etymology" dataDxfId="26"/>
-    <tableColumn id="31" xr3:uid="{382049B8-1420-4890-AA1D-66AB22D5BC00}" name="Food" dataDxfId="25"/>
-    <tableColumn id="32" xr3:uid="{C8623242-7752-4D96-A6BB-4DE3025367CF}" name="Other-Interesting-facts" dataDxfId="24"/>
-    <tableColumn id="41" xr3:uid="{396E15FE-D0D7-490B-9C93-742D5362C7DD}" name="js" dataDxfId="23">
+    <tableColumn id="15" xr3:uid="{8FC04368-EB71-4B86-9C27-6B5C54F7CD2A}" name="Synonym names" dataDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{8C970EFF-E802-4601-B1D9-36149E610850}" name="Body Type" dataDxfId="37"/>
+    <tableColumn id="18" xr3:uid="{4F9B6EB5-B995-453F-894C-164BB7468F01}" name="Background color" dataDxfId="36"/>
+    <tableColumn id="19" xr3:uid="{23754772-2B7D-4EC2-B897-86689E3D8E28}" name="Lines" dataDxfId="35"/>
+    <tableColumn id="20" xr3:uid="{A74606D9-3DEB-4255-9158-4D8510FA3004}" name="Spots/patches" dataDxfId="34"/>
+    <tableColumn id="21" xr3:uid="{2DF489E5-F49B-434E-8A91-4BBB3E80BBA6}" name="Rings/bands" dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{9A922BDF-1A86-4134-8E53-77A2695DB315}" name="Margins" dataDxfId="32"/>
+    <tableColumn id="23" xr3:uid="{24544C76-1A9B-4042-A37B-8C46D54A18B4}" name="Dorsal structures" dataDxfId="31"/>
+    <tableColumn id="24" xr3:uid="{DEA9FC8F-2DAD-4476-B6D3-46AAA0DF808B}" name="Dorsal structure detail" dataDxfId="30"/>
+    <tableColumn id="25" xr3:uid="{3DA8746C-46B3-482C-8432-60DC6B93B9BA}" name="Oral/cephalic Appendices" dataDxfId="29"/>
+    <tableColumn id="26" xr3:uid="{F40415DB-0F45-49D7-9743-FD7B82BEBE8A}" name="Rhinophore shapes" dataDxfId="28"/>
+    <tableColumn id="27" xr3:uid="{8F4673D6-9096-494E-AC46-46438BCC6B65}" name="Rhinophore-detail" dataDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{1096E658-57AB-4EE2-B5E2-C022AF995304}" name="Gills shapes" dataDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{AA4E92C5-8A6A-488A-BAEC-4F4EB975A8EE}" name="Gills" dataDxfId="25"/>
+    <tableColumn id="30" xr3:uid="{CFC01E3C-DD13-4F8B-9069-1F8E8918761F}" name="Etymology" dataDxfId="24"/>
+    <tableColumn id="31" xr3:uid="{382049B8-1420-4890-AA1D-66AB22D5BC00}" name="Food" dataDxfId="23"/>
+    <tableColumn id="32" xr3:uid="{C8623242-7752-4D96-A6BB-4DE3025367CF}" name="Other-Interesting-facts" dataDxfId="22"/>
+    <tableColumn id="41" xr3:uid="{396E15FE-D0D7-490B-9C93-742D5362C7DD}" name="js" dataDxfId="21">
       <calculatedColumnFormula>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10785,10 +10738,10 @@
   <dimension ref="A1:AN182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15326,8 +15279,8 @@
         <v>2580</v>
       </c>
       <c r="AN45" t="str">
-        <f>CONCATENATE("addSpec(template,{photo:'",[2]!Nudibranchdata[[#This Row],[Photo]],"',photographer:'",[2]!Nudibranchdata[[#This Row],[Photographer]],"',genus:'",[2]!Nudibranchdata[[#This Row],[Genus]],"',species:'",[2]!Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",[2]!Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",[2]!Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",[2]!Nudibranchdata[[#This Row],[L:W]],":1',size:'",[2]!Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",[2]!Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",[2]!Nudibranchdata[[#This Row],[Background color]],"',lines:'",[2]!Nudibranchdata[[#This Row],[Lines]],"',spots:'",[2]!Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",[2]!Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",[2]!Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",[2]!Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",[2]!Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",[2]!Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",[2]!Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",[2]!Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",[2]!Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",[2]!Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",[2]!Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",[2]!Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",[2]!Nudibranchdata[[#This Row],[Food]],"',order:'",[2]!Nudibranchdata[[#This Row],[Order]],"',family:'",[2]!Nudibranchdata[[#This Row],[Family]],"',described:'",[2]!Nudibranchdata[[#This Row],[Described]],"',name:'",[2]!Nudibranchdata[[#This Row],[English name]],"',distribution:'",[2]!Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",[2]!Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",[2]!Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",[2]!Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",[2]!Nudibranchdata[[#This Row],[Habitat]],"',description:'",[2]!Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF([2]!Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT([2]!Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",[2]!Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",[2]!Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'co008.jpg',photographer:'C. Ogden',genus:'Favorinus',species:'tsuruganus',ssfpage:'favotsur',aliases:'',sizeratio:'6:1',size:'30',bodytype:'Facelliniid',backgroundcolor:'opaque white',lines:'',spots:'',rings:'',margins:'',dorsalstruc:'Curved cerata',dorsalstrucdetail:'yellow with pink or black tip. May have blueish band in black tip',oralapp:'Long tentacles',rhinophoreshape:'Annulate',rhinophoredetail:'Black',gillshape:'Dermal',gills:'',nameinfo:'',otherinfo:'Color dependent on color of consumed food',food:'eggs of other species(Hexabranchus, Chromodoriid and Aeoliid)',order:'NUDIBRANCHIA',family:'Facelinidae ',described:'Baba &amp; Abe, 1964',name:'Black-horned egg-eater',distribution:'southern and northern KwaZulu-Natal, southern Mozambique, Indo-West Pacific',depthrange:'10m-40m',similarsp:'',distinctiveattr:'Dark perfoliate rhinophores and dark ceratal tips',habitat:'On subtropical reefs',description:'A small to medium-sized aeolid, opaque white with orange dark-tipped cerata. Head translucent pale to orange with smooth oral tentacles covered with more or less dense opaque white speckling. Dark perfoliate rhinophores. Notum with patches of translucence. Cerata may be yellow. Ceratal tips dark and in some individuals black and blue bands can be distinguished below the black tip. Foot slender, translucent, tapered and with a central opaque white stripe.',photodate:'',wormsid:'599253',reviewed:'Y'});</v>
+        <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
+        <v>addSpec(template,{photo:'DSCN5210.jpg',photographer:'R. Marx',genus:'Chromodoris',species:'africana',ssfpage:'chroafri',aliases:'',sizeratio:'4:1',size:'73',bodytype:'Doriid',backgroundcolor:'White',lines:'3 Longitudinal, black',spots:'',rings:'',margins:'Yellow with white sub-margin',dorsalstruc:'',dorsalstrucdetail:'',oralapp:'',rhinophoreshape:'Lamellate',rhinophoredetail:'yellow/orange',gillshape:'Feathers',gills:'Yellow/orange',nameinfo:'africana:Africa',otherinfo:'',food:'Red sponge',order:'NUDIBRANCHIA',family:'Chromodorididae',described:'Eliot, 1904',name:'African rainbow dorid',distribution:'KwaZulu-Natal, Mozambique, Indian Ocean',depthrange:'15m-59m',similarsp:'Chromodoris magnifica',distinctiveattr:'three black stripes, lacks a white marginal band.',habitat:'In deeper water on reefs, overhangs and caves',description:'A medium- to large-sized dorid, white-bodied with three wide black stripes and an orange margin. Rhinophores and gills orange. In some individuals the black stripes may have a faint grey central stripe, or the black stripes may be broken up. Posterior end of foot tapered with black and white stripes and an orange margin.',photodate:'28 Apr 2009',wormsid:'209584',reviewed:'Y'});</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="90" x14ac:dyDescent="0.25">
@@ -21060,8 +21013,8 @@
         <v>2567</v>
       </c>
       <c r="AN100" t="str">
-        <f>CONCATENATE("addSpec(template,{photo:'",[2]!Nudibranchdata[[#This Row],[Photo]],"',photographer:'",[2]!Nudibranchdata[[#This Row],[Photographer]],"',genus:'",[2]!Nudibranchdata[[#This Row],[Genus]],"',species:'",[2]!Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",[2]!Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",[2]!Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",[2]!Nudibranchdata[[#This Row],[L:W]],":1',size:'",[2]!Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",[2]!Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",[2]!Nudibranchdata[[#This Row],[Background color]],"',lines:'",[2]!Nudibranchdata[[#This Row],[Lines]],"',spots:'",[2]!Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",[2]!Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",[2]!Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",[2]!Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",[2]!Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",[2]!Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",[2]!Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",[2]!Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",[2]!Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",[2]!Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",[2]!Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",[2]!Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",[2]!Nudibranchdata[[#This Row],[Food]],"',order:'",[2]!Nudibranchdata[[#This Row],[Order]],"',family:'",[2]!Nudibranchdata[[#This Row],[Family]],"',described:'",[2]!Nudibranchdata[[#This Row],[Described]],"',name:'",[2]!Nudibranchdata[[#This Row],[English name]],"',distribution:'",[2]!Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",[2]!Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",[2]!Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",[2]!Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",[2]!Nudibranchdata[[#This Row],[Habitat]],"',description:'",[2]!Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF([2]!Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT([2]!Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",[2]!Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",[2]!Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'IMG_1599.jpg',photographer:'R. Marx',genus:'Hypselodoris',species:'sp.',ssfpage:'hypscfca',aliases:'juvenile',sizeratio:':1',size:'',bodytype:'',backgroundcolor:'',lines:'',spots:'',rings:'',margins:'',dorsalstruc:'',dorsalstrucdetail:'',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'undescribed',otherinfo:'',food:'',order:'DORIDIDA',family:'Chromodorididae',described:'',name:'',distribution:'',depthrange:'',similarsp:'',distinctiveattr:'',habitat:'',description:'Similarities to H. carnea',photodate:'',wormsid:'',reviewed:'X'});</v>
+        <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
+        <v>addSpec(template,{photo:'IMG_9751.jpg',photographer:'R. Marx',genus:'Jorunna',species:'parva',ssfpage:'joruparv',aliases:'',sizeratio:'4:1',size:'25',bodytype:'Doriid',backgroundcolor:'Yellow',lines:'',spots:'',rings:'',margins:'',dorsalstruc:'fine caryophyllidia',dorsalstrucdetail:'black',oralapp:'',rhinophoreshape:'Lamellate',rhinophoredetail:'black lamelae, pale stalks',gillshape:'feathers',gills:'pale white base and central branch with black edges',nameinfo:'parva:small',otherinfo:'',food:'',order:'DORIDIDA',family:'Discodorididae',described:'Baba, 1938',name:'Peppercorn velvet dorid',distribution:'KwaZulu-Natal, southern Mozambique, Indo-West Pacific',depthrange:'1m-25m',similarsp:'Crimora lutea,Doris ananas',distinctiveattr:'velvety texture, spiky caryophyllidia and dark rhinophores and gills',habitat:'reef',description:'A small yellow- to orange-bodied velvety-textured dorid with many pointed black caryophyllidia. Rhinophores black with pale central stems and bases. Margin with clusters of opaque white caryophyllidia. Gills pale with black edges; foot pale with black spots at margin, posterior end of foot translucent white with central black stripe.',photodate:'02 May 2019',wormsid:'534396',reviewed:'Y'});</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="45" x14ac:dyDescent="0.25">
@@ -21277,7 +21230,7 @@
         <v>addSpec(template,{photo:'IMG_7876.jpg',photographer:'R. Marx',genus:'Aldisa',species:'sp.2',ssfpage:'aldisp4',aliases:'mimic sponge aldisa',sizeratio:'2:1',size:'30',bodytype:'Phylidiid',backgroundcolor:'Orange/red',lines:'orange/yellow, reticulated ridges',spots:'Areas of ligher orange/yellow laterally on sides of body and in pits on medial dorsum',rings:'',margins:'',dorsalstruc:'Reticulated ridges',dorsalstrucdetail:'light orange/yellow ridge tops',oralapp:'None',rhinophoreshape:'Lamellate/perfoliate',rhinophoredetail:'Dark orange clubs, lighter orange stalks',gillshape:'Branched',gills:'Darker orange',nameinfo:'undescribed',otherinfo:'',food:'Sponges',order:'NUDIBRANCHIA',family:'Dorididae',described:'',name:'Waffle toothy dorid',distribution:'northern KwaZulu-Natal, southern Mozambique',depthrange:'0m-32m',similarsp:'Aldisa sp.3',distinctiveattr:'Network of ridges, absence of purple spots',habitat:'rocky reefs',description:'A small to medium-sized red-bodied dorid with a network of ridges, some pale, surrounding three pale depressions. Head red, ridged, with a pale circular depression between the red rhinophores. Depression with several dark spots. Interconnected notum ridges may be pale, most red. Pale depressions with several dark spots. Gills red, posterior end of foot rounded and with ridges.',photodate:'19 Aug 2016',wormsid:'',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1121</v>
       </c>
@@ -21294,96 +21247,90 @@
         <v>923</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="G103" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Phyllidia alyta</v>
+        <v>Phyllidia varicosa</v>
       </c>
       <c r="H103" t="s">
-        <v>2176</v>
+        <v>2209</v>
       </c>
       <c r="I103" t="s">
-        <v>2177</v>
-      </c>
-      <c r="J103">
-        <v>599550</v>
+        <v>2210</v>
+      </c>
+      <c r="J103" s="11">
+        <v>212835</v>
       </c>
       <c r="K103">
         <v>4</v>
       </c>
       <c r="L103">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="M103" t="s">
-        <v>1784</v>
+        <v>272</v>
       </c>
       <c r="N103" t="s">
-        <v>1496</v>
+        <v>2211</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>2178</v>
+        <v>2212</v>
       </c>
       <c r="P103" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
       <c r="Q103" t="s">
-        <v>2181</v>
+        <v>2213</v>
       </c>
       <c r="R103" t="s">
-        <v>2182</v>
+        <v>1432</v>
       </c>
       <c r="S103" t="s">
-        <v>925</v>
+        <v>948</v>
       </c>
       <c r="T103" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="U103" t="s">
         <v>28</v>
       </c>
       <c r="V103" s="10">
-        <v>42450</v>
+        <v>42447</v>
       </c>
       <c r="X103" t="s">
         <v>415</v>
       </c>
       <c r="Y103" t="s">
-        <v>927</v>
+        <v>64</v>
       </c>
       <c r="Z103" t="s">
-        <v>2184</v>
+        <v>2224</v>
       </c>
       <c r="AA103" t="s">
-        <v>2185</v>
+        <v>950</v>
       </c>
       <c r="AD103" t="s">
         <v>928</v>
       </c>
       <c r="AE103" t="s">
-        <v>929</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>2163</v>
+        <v>951</v>
       </c>
       <c r="AG103" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AH103" t="s">
-        <v>930</v>
+        <v>305</v>
       </c>
       <c r="AI103" t="s">
         <v>557</v>
       </c>
       <c r="AK103" t="s">
-        <v>2183</v>
-      </c>
-      <c r="AM103" t="s">
-        <v>931</v>
+        <v>1720</v>
       </c>
       <c r="AN103" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'IMG_7390.jpg',photographer:'R. Marx',genus:'Phyllidia',species:'alyta',ssfpage:'phylalyt',aliases:'',sizeratio:'4:1',size:'50',bodytype:'Phylidiid',backgroundcolor:'pink/blue-grey',lines:'4 longitudinal black lines on notum, black line under foot, black line between rhinophores',spots:'black radial patches at edge of mantle',rings:'',margins:'',dorsalstruc:'Cerata - Tuberculate',dorsalstrucdetail:'yellow tips',oralapp:'Long tenacles, orange base and yellow tips',rhinophoreshape:'Simple',rhinophoredetail:'Yellow with blue-grey stalk/base',gillshape:'Under Mantel skirt',gills:'',nameinfo:'alyta:unblemished',otherinfo:'Black median line on sole, black line between rhinophore bases',food:'',order:'DORIDIDA',family:'Phyllidiidae',described:'Yonow, 1996',name:'Four-lined wart slug',distribution:'northern KwaZulu-Natal, Mozambique, Indian Ocean',depthrange:'5m-20m',similarsp:'Phyllidiella spp. and Phyllidiopsis spp.',distinctiveattr:'our black stripes, yellow rhinophores and the presence of some yellow-tipped tubercles',habitat:'Shallow reefs',description:'A medium-sized whitish-bodied wart slug with four parallel black stripes. Rhinophores yellow. Tubercles behind rhinophores. Black stripes may intersect in some individuals. Notum with rows of white tubercles, taller towards the centre, some with yellow tips, smaller tubercles on margin; notum may also lack yellow tubercles or have black dashes parallel to black stripes. Foot white, central black stripe on underside of foot.',photodate:'21 Mar 2016',wormsid:'599550',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'IMG_7023.jpg',photographer:'R. Marx',genus:'Phyllidia',species:'varicosa',ssfpage:'phylvari',aliases:'',sizeratio:'4:1',size:'115',bodytype:'Phylidiid',backgroundcolor:'Black',lines:'white/grey/blueish',spots:'Tubercule bases sometimes combine to form longitudinal blue-grey ridges',rings:'',margins:'',dorsalstruc:'Cerata - Tuberculate',dorsalstrucdetail:'blue-grey bases, yellow tops. Tubercule bases sometimes combine to form longitudinal blue-grey ridges',oralapp:'',rhinophoreshape:'Lamellate',rhinophoredetail:'Yellow',gillshape:'Under Mantel skirt',gills:'',nameinfo:'varicose:swollen veins',otherinfo:'',food:'',order:'DORIDIDA',family:'Phyllidiidae',described:'Lamarck, 1801',name:'Variable wart slug',distribution:'Wild Coast, KwaZulu-Natal, Mozambique, widespread Indo-Pacific',depthrange:'0m-33m',similarsp:'Phyllidia spp.',distinctiveattr:'numerous yellow-topped tubercles, three parallel black stripes and black stripe on the foot',habitat:'Reefs',description:'A large white- to pale blue-bodied wart slug with yellow-topped white tubercles. Yellow rhinophores, tubercles behind rhinophores. Three parallel black stripes between ridges; stripes may interconnect; margin with smaller yellow-topped tubercles interspersed with black bars. Underside of foot greyish white with a diffuse black stripe.',photodate:'18 Mar 2016',wormsid:'212835',reviewed:'Y'});</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="75" x14ac:dyDescent="0.25">
@@ -21910,7 +21857,7 @@
         <v>addSpec(template,{photo:'IMG_7372.jpg',photographer:'R. Marx',genus:'Phyllidia',species:'ocellata/undula',ssfpage:'phylocel',aliases:'(undulated variation)',sizeratio:'4:1',size:'60',bodytype:'Phylidiid',backgroundcolor:'Yellow',lines:'',spots:'Undulating black patch forming a sub-marginal ring arround the dorsum with white edge',rings:'',margins:'',dorsalstruc:'Cerata - Tuberculate',dorsalstrucdetail:'Yellow',oralapp:'',rhinophoreshape:'Lamellate',rhinophoredetail:'Yellow',gillshape:'Under Mantel skirt',gills:'',nameinfo:'ocellata:circle',otherinfo:'',food:'',order:'DORIDIDA',family:'Phyllidiidae',described:'Cuvier, 1804',name:'Ocellated wart slug',distribution:'Wild Coast, KwaZulu-Natal, Mozambique, widespread Indo-Pacific',depthrange:'1m-41m',similarsp:'',distinctiveattr:'Yellow body and white-edged black spots and blotches are diagnostic.',habitat:'shallow reefs',description:'A large yellow wart slug. Yellow rhinophores, tubercles behind rhinophores. Notum variable with large yellow tubercles, and white-edged black spots or blotches. Black spots may surround tubercles or be present in broad stripes with radiating extensions. Margin with smaller tubercles.',photodate:'21 Mar 2016',wormsid:'1458826',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1121</v>
       </c>
@@ -21927,90 +21874,96 @@
         <v>923</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="G109" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Phyllidia varicosa</v>
+        <v>Phyllidia alyta</v>
       </c>
       <c r="H109" t="s">
-        <v>2209</v>
+        <v>2176</v>
       </c>
       <c r="I109" t="s">
-        <v>2210</v>
-      </c>
-      <c r="J109" s="11">
-        <v>212835</v>
+        <v>2177</v>
+      </c>
+      <c r="J109">
+        <v>599550</v>
       </c>
       <c r="K109">
         <v>4</v>
       </c>
       <c r="L109">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="M109" t="s">
-        <v>272</v>
+        <v>1784</v>
       </c>
       <c r="N109" t="s">
-        <v>2211</v>
+        <v>1496</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>2212</v>
+        <v>2178</v>
       </c>
       <c r="P109" t="s">
-        <v>2191</v>
+        <v>2180</v>
       </c>
       <c r="Q109" t="s">
-        <v>2213</v>
+        <v>2181</v>
       </c>
       <c r="R109" t="s">
-        <v>1432</v>
+        <v>2182</v>
       </c>
       <c r="S109" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="T109" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="U109" t="s">
         <v>28</v>
       </c>
       <c r="V109" s="10">
-        <v>42447</v>
+        <v>42450</v>
       </c>
       <c r="X109" t="s">
         <v>415</v>
       </c>
       <c r="Y109" t="s">
-        <v>64</v>
+        <v>927</v>
       </c>
       <c r="Z109" t="s">
-        <v>2224</v>
+        <v>2184</v>
       </c>
       <c r="AA109" t="s">
-        <v>950</v>
+        <v>2185</v>
       </c>
       <c r="AD109" t="s">
         <v>928</v>
       </c>
       <c r="AE109" t="s">
-        <v>951</v>
+        <v>929</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>2163</v>
       </c>
       <c r="AG109" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AH109" t="s">
-        <v>305</v>
+        <v>930</v>
       </c>
       <c r="AI109" t="s">
         <v>557</v>
       </c>
       <c r="AK109" t="s">
-        <v>1720</v>
+        <v>2183</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>931</v>
       </c>
       <c r="AN109" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'IMG_7023.jpg',photographer:'R. Marx',genus:'Phyllidia',species:'varicosa',ssfpage:'phylvari',aliases:'',sizeratio:'4:1',size:'115',bodytype:'Phylidiid',backgroundcolor:'Black',lines:'white/grey/blueish',spots:'Tubercule bases sometimes combine to form longitudinal blue-grey ridges',rings:'',margins:'',dorsalstruc:'Cerata - Tuberculate',dorsalstrucdetail:'blue-grey bases, yellow tops. Tubercule bases sometimes combine to form longitudinal blue-grey ridges',oralapp:'',rhinophoreshape:'Lamellate',rhinophoredetail:'Yellow',gillshape:'Under Mantel skirt',gills:'',nameinfo:'varicose:swollen veins',otherinfo:'',food:'',order:'DORIDIDA',family:'Phyllidiidae',described:'Lamarck, 1801',name:'Variable wart slug',distribution:'Wild Coast, KwaZulu-Natal, Mozambique, widespread Indo-Pacific',depthrange:'0m-33m',similarsp:'Phyllidia spp.',distinctiveattr:'numerous yellow-topped tubercles, three parallel black stripes and black stripe on the foot',habitat:'Reefs',description:'A large white- to pale blue-bodied wart slug with yellow-topped white tubercles. Yellow rhinophores, tubercles behind rhinophores. Three parallel black stripes between ridges; stripes may interconnect; margin with smaller yellow-topped tubercles interspersed with black bars. Underside of foot greyish white with a diffuse black stripe.',photodate:'18 Mar 2016',wormsid:'212835',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'IMG_7390.jpg',photographer:'R. Marx',genus:'Phyllidia',species:'alyta',ssfpage:'phylalyt',aliases:'',sizeratio:'4:1',size:'50',bodytype:'Phylidiid',backgroundcolor:'pink/blue-grey',lines:'4 longitudinal black lines on notum, black line under foot, black line between rhinophores',spots:'black radial patches at edge of mantle',rings:'',margins:'',dorsalstruc:'Cerata - Tuberculate',dorsalstrucdetail:'yellow tips',oralapp:'Long tenacles, orange base and yellow tips',rhinophoreshape:'Simple',rhinophoredetail:'Yellow with blue-grey stalk/base',gillshape:'Under Mantel skirt',gills:'',nameinfo:'alyta:unblemished',otherinfo:'Black median line on sole, black line between rhinophore bases',food:'',order:'DORIDIDA',family:'Phyllidiidae',described:'Yonow, 1996',name:'Four-lined wart slug',distribution:'northern KwaZulu-Natal, Mozambique, Indian Ocean',depthrange:'5m-20m',similarsp:'Phyllidiella spp. and Phyllidiopsis spp.',distinctiveattr:'our black stripes, yellow rhinophores and the presence of some yellow-tipped tubercles',habitat:'Shallow reefs',description:'A medium-sized whitish-bodied wart slug with four parallel black stripes. Rhinophores yellow. Tubercles behind rhinophores. Black stripes may intersect in some individuals. Notum with rows of white tubercles, taller towards the centre, some with yellow tips, smaller tubercles on margin; notum may also lack yellow tubercles or have black dashes parallel to black stripes. Foot white, central black stripe on underside of foot.',photodate:'21 Mar 2016',wormsid:'599550',reviewed:'Y'});</v>
       </c>
     </row>
     <row r="110" spans="1:40" ht="45" x14ac:dyDescent="0.25">
@@ -28387,99 +28340,107 @@
         <v>addSpec(template,{photo:'DSCN2014.jpg',photographer:'R. Marx',genus:'Thuridilla',species:'virgata',ssfpage:'thurvirg',aliases:'',sizeratio:'6:1',size:'30',bodytype:'Aeoliid',backgroundcolor:'pale bluish white',lines:'broad black longitudinal bands.  Y-shaped bluish white band running along the medio-dorsal line, a branch going to each rhinophore',spots:'',rings:'',margins:'',dorsalstruc:'Parapodia',dorsalstrucdetail:'',oralapp:'None',rhinophoreshape:'Rolled',rhinophoredetail:'Yello',gillshape:'Dermal',gills:'',nameinfo:'virgata:striped',otherinfo:'',food:'',order:'SACOGLOSSA',family:'Plakobranchidae',described:'Bergh, 1888',name:'Toothpaste taco slug',distribution:'northern KwaZulu-Natal, southern Mozambique, western Indian Ocean',depthrange:'1m-17m',similarsp:'',distinctiveattr:'Black stripes are distinctive',habitat:'sand and subtropical reefs',description:'A small light blue sap-sucker with several black stripes. Head with central diffuse V-shaped light blue marking extending to rhinophores; black laterally. Rolled orange rhinophores with light blue bases. Parapodia with slightly undulating margins. Posterior end of foot more intense blue, tapered.',photodate:'09 Feb 2005',wormsid:'494508',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="173" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1121</v>
       </c>
       <c r="B173">
-        <v>1700</v>
+        <v>1710</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>1413</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>238</v>
+        <v>1580</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>2546</v>
+        <v>2101</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>2544</v>
+        <v>897</v>
       </c>
       <c r="G173" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Glaucilla marginatus</v>
+        <v>Bermudella  brunneomaculata</v>
       </c>
       <c r="H173" t="s">
-        <v>2547</v>
+        <v>2095</v>
       </c>
       <c r="I173" t="s">
-        <v>2545</v>
+        <v>2096</v>
       </c>
       <c r="J173" s="11">
-        <v>534056</v>
+        <v>1723419</v>
       </c>
       <c r="K173">
         <v>4</v>
       </c>
       <c r="L173">
-        <v>20</v>
-      </c>
-      <c r="M173" s="4" t="s">
-        <v>2548</v>
+        <v>10</v>
+      </c>
+      <c r="M173" t="s">
+        <v>2097</v>
       </c>
       <c r="N173" t="s">
-        <v>1348</v>
+        <v>1134</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>2549</v>
-      </c>
-      <c r="P173" t="s">
-        <v>2550</v>
+        <v>2098</v>
       </c>
       <c r="Q173" t="s">
-        <v>2551</v>
+        <v>2099</v>
       </c>
       <c r="R173" t="s">
-        <v>2536</v>
+        <v>2100</v>
       </c>
       <c r="S173" t="s">
-        <v>2552</v>
+        <v>898</v>
       </c>
       <c r="T173" t="s">
-        <v>1119</v>
+        <v>899</v>
       </c>
       <c r="U173" t="s">
-        <v>1120</v>
-      </c>
-      <c r="V173"/>
+        <v>28</v>
+      </c>
+      <c r="V173" s="10">
+        <v>42601</v>
+      </c>
+      <c r="W173" t="s">
+        <v>2102</v>
+      </c>
       <c r="X173" t="s">
-        <v>2537</v>
+        <v>2165</v>
       </c>
       <c r="Y173" t="s">
-        <v>2539</v>
+        <v>900</v>
       </c>
       <c r="Z173" t="s">
-        <v>2538</v>
-      </c>
-      <c r="AB173" t="s">
-        <v>2541</v>
+        <v>901</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>902</v>
       </c>
       <c r="AD173" t="s">
-        <v>2445</v>
+        <v>41</v>
       </c>
       <c r="AE173" t="s">
-        <v>2540</v>
+        <v>903</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>900</v>
       </c>
       <c r="AK173" t="s">
-        <v>2543</v>
-      </c>
-      <c r="AL173" t="s">
-        <v>2542</v>
+        <v>1718</v>
       </c>
       <c r="AN173" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'am001.jpg',photographer:'A. Marx',genus:'Glaucilla',species:'marginatus',ssfpage:'glaumarg',aliases:'',sizeratio:'4:1',size:'20',bodytype:'other',backgroundcolor:'blue/white',lines:'blue',spots:'',rings:'blue bands on cerata',margins:'',dorsalstruc:'cerata',dorsalstrucdetail:'blue bands',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'atlanticus:atlantic ocean',otherinfo:'',food:'Blue-bottles/potuegese man-o-war',order:'NUDIBRANCHIA',family:'Glaucidae',described:'Reinhardt &amp; Bergh, 1854',name:'Indo-Pacific sea swallow',distribution:'southern Mozambique, Indo-Pacific',depthrange:'0m',similarsp:'Glaucus atlanticus',distinctiveattr:'multiple rows of cerata extending from each appendage',habitat:'pelagic',description:'A small blue- and silver-bodied aeolid with distinctive blue cerata arranged in spreading rays of several branches. Head dark bright blue with lateral silver stripes. Short smooth blue-tipped oral tentacles and rhinophores. Notum and cerata silver. Foot with central dark blue stripe, transparent silver at sides; may have dark blue speckling. Cerata extend from three translucent appendages in multiple rows. Posterior end of foot slender, tapered, dark blue.',photodate:'',wormsid:'534056',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'IMG_7860.JPG',photographer:'R. Marx',genus:'Bermudella ',species:'brunneomaculata',ssfpage:'okenbrun',aliases:'Okinia brunneomaculata',sizeratio:'4:1',size:'10',bodytype:'Facelliniid',backgroundcolor:'translucent white',lines:'chocolate brown lines down sides',spots:'Chocolate brown',rings:'',margins:'',dorsalstruc:'Papillae',dorsalstrucdetail:'elongated, white',oralapp:'Tentacles',rhinophoreshape:'Annulate',rhinophoredetail:'translucent white',gillshape:'',gills:'',nameinfo:'brunnea:brown, maculata:spotted/stained',otherinfo:'',food:'',order:'DORIDIDA',family:'Goniodorididae',described:'Gosliner, 2004',name:'Brown oval pump dorid',distribution:'central and northern KwaZulu-Natal, southern Mozambique, west and central Pacific',depthrange:'0m-20m',similarsp:'',distinctiveattr:'dark brown oval marking',habitat:'Under sponges with bryozoans',description:'A small white-bodied dorid with white lateral papillae and a distinct dark brown oval marking. Head white with several velar papillae of varying lengths, rhinophores white. Notum with scattered dark brown spots and small tubercles. Gills sparse and white. Posterior end of foot tapered, white.',photodate:'19 Aug 2016',wormsid:'1723419',reviewed:'Y'});</v>
       </c>
     </row>
     <row r="174" spans="1:40" ht="60" x14ac:dyDescent="0.25">
@@ -28487,7 +28448,7 @@
         <v>1121</v>
       </c>
       <c r="B174">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="C174" t="s">
         <v>1413</v>
@@ -28496,101 +28457,108 @@
         <v>1580</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>2101</v>
+        <v>727</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>897</v>
+        <v>728</v>
       </c>
       <c r="G174" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Bermudella  brunneomaculata</v>
+        <v>Goniodoridella savignyi</v>
       </c>
       <c r="H174" t="s">
-        <v>2095</v>
+        <v>1581</v>
       </c>
       <c r="I174" t="s">
-        <v>2096</v>
-      </c>
-      <c r="J174" s="11">
-        <v>1723419</v>
+        <v>1582</v>
+      </c>
+      <c r="J174">
+        <v>533842</v>
       </c>
       <c r="K174">
         <v>4</v>
       </c>
       <c r="L174">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M174" t="s">
-        <v>2097</v>
+        <v>1583</v>
       </c>
       <c r="N174" t="s">
-        <v>1134</v>
+        <v>1584</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>2098</v>
+        <v>1585</v>
+      </c>
+      <c r="P174" t="s">
+        <v>1586</v>
       </c>
       <c r="Q174" t="s">
-        <v>2099</v>
+        <v>1587</v>
       </c>
       <c r="R174" t="s">
-        <v>2100</v>
+        <v>1588</v>
       </c>
       <c r="S174" t="s">
-        <v>898</v>
+        <v>729</v>
       </c>
       <c r="T174" t="s">
-        <v>899</v>
+        <v>730</v>
       </c>
       <c r="U174" t="s">
-        <v>28</v>
-      </c>
-      <c r="V174" s="10">
-        <v>42601</v>
-      </c>
-      <c r="W174" t="s">
-        <v>2102</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="V174"/>
       <c r="X174" t="s">
-        <v>2165</v>
+        <v>215</v>
       </c>
       <c r="Y174" t="s">
-        <v>900</v>
+        <v>295</v>
       </c>
       <c r="Z174" t="s">
-        <v>901</v>
+        <v>731</v>
       </c>
       <c r="AA174" t="s">
-        <v>902</v>
+        <v>732</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>733</v>
       </c>
       <c r="AD174" t="s">
-        <v>41</v>
+        <v>734</v>
       </c>
       <c r="AE174" t="s">
-        <v>903</v>
+        <v>735</v>
       </c>
       <c r="AF174" t="s">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="AG174" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AH174" t="s">
-        <v>900</v>
+        <v>735</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>736</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>735</v>
       </c>
       <c r="AK174" t="s">
-        <v>1718</v>
+        <v>1589</v>
       </c>
       <c r="AN174" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'IMG_7860.JPG',photographer:'R. Marx',genus:'Bermudella ',species:'brunneomaculata',ssfpage:'okenbrun',aliases:'Okinia brunneomaculata',sizeratio:'4:1',size:'10',bodytype:'Facelliniid',backgroundcolor:'translucent white',lines:'chocolate brown lines down sides',spots:'Chocolate brown',rings:'',margins:'',dorsalstruc:'Papillae',dorsalstrucdetail:'elongated, white',oralapp:'Tentacles',rhinophoreshape:'Annulate',rhinophoredetail:'translucent white',gillshape:'',gills:'',nameinfo:'brunnea:brown, maculata:spotted/stained',otherinfo:'',food:'',order:'DORIDIDA',family:'Goniodorididae',described:'Gosliner, 2004',name:'Brown oval pump dorid',distribution:'central and northern KwaZulu-Natal, southern Mozambique, west and central Pacific',depthrange:'0m-20m',similarsp:'',distinctiveattr:'dark brown oval marking',habitat:'Under sponges with bryozoans',description:'A small white-bodied dorid with white lateral papillae and a distinct dark brown oval marking. Head white with several velar papillae of varying lengths, rhinophores white. Notum with scattered dark brown spots and small tubercles. Gills sparse and white. Posterior end of foot tapered, white.',photodate:'19 Aug 2016',wormsid:'1723419',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'co011.jpg',photographer:'C. Ogden',genus:'Goniodoridella',species:'savignyi',ssfpage:'gonisavi',aliases:'',sizeratio:'4:1',size:'11',bodytype:'Other',backgroundcolor:'Translucent white',lines:'mid-dorsal longitudinal Yellow/brown line on ridge crest',spots:'opaque white specs',rings:'',margins:'Yellow/brown margin on anteriar and lateral mantle',dorsalstruc:'Raised mantle, medial ridge and 2 cerata behind gills',dorsalstrucdetail:'White with yellow/brown tips',oralapp:'None',rhinophoreshape:'Simple',rhinophoredetail:'White with yellow/brown tips',gillshape:'Cylindrical',gills:'White with yellow/brown tips',nameinfo:'savignyi:French naturalist Jules-César Savigny',otherinfo:'',food:'',order:'DORIDIDA',family:'Goniodorididae',described:'Pruvot-Fol, 1933',name:'Longhorn pump dorid',distribution:'northern KwaZulu-Natal, Indo-West and central Pacific',depthrange:'5m-15m',similarsp:'Goniodoridella sp.',distinctiveattr:'central yellow ridge and yellow marginal band',habitat:'Under coral rubble on reefs',description:'A small white dorid with a yellow ridge down the centre of the notum and a yellow margin. Head white with a yellow anterior margin and a pair of smooth yellow cephalic tentacles. Rhinophores smooth, elongated and white. Gills insignificant and opaque white, may have yellow tips. Posterior end of foot tapered, white.',photodate:'',wormsid:'533842',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="175" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1121</v>
       </c>
       <c r="B175">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="C175" t="s">
         <v>1413</v>
@@ -28599,388 +28567,373 @@
         <v>1580</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>727</v>
+        <v>1590</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>728</v>
+        <v>1591</v>
       </c>
       <c r="G175" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Goniodoridella savignyi</v>
+        <v>Pelagella longicornis</v>
       </c>
       <c r="H175" t="s">
-        <v>1581</v>
+        <v>1592</v>
       </c>
       <c r="I175" t="s">
-        <v>1582</v>
+        <v>1593</v>
       </c>
       <c r="J175">
-        <v>533842</v>
+        <v>1663409</v>
       </c>
       <c r="K175">
         <v>4</v>
       </c>
       <c r="L175">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M175" t="s">
-        <v>1583</v>
+        <v>1594</v>
       </c>
       <c r="N175" t="s">
-        <v>1584</v>
+        <v>1595</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="P175" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
       <c r="Q175" t="s">
-        <v>1587</v>
-      </c>
-      <c r="R175" t="s">
-        <v>1588</v>
+        <v>1598</v>
       </c>
       <c r="S175" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="T175" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="U175" t="s">
-        <v>293</v>
-      </c>
-      <c r="V175"/>
+        <v>28</v>
+      </c>
+      <c r="V175" s="10">
+        <v>43741</v>
+      </c>
+      <c r="W175" t="s">
+        <v>739</v>
+      </c>
       <c r="X175" t="s">
         <v>215</v>
       </c>
       <c r="Y175" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z175" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="AA175" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="AC175" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="AD175" t="s">
-        <v>734</v>
-      </c>
-      <c r="AE175" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="AF175" t="s">
-        <v>43</v>
+        <v>1600</v>
       </c>
       <c r="AG175" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AH175" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="AI175" t="s">
-        <v>736</v>
+        <v>408</v>
       </c>
       <c r="AJ175" t="s">
-        <v>735</v>
+        <v>148</v>
       </c>
       <c r="AK175" t="s">
-        <v>1589</v>
+        <v>1601</v>
       </c>
       <c r="AN175" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'co011.jpg',photographer:'C. Ogden',genus:'Goniodoridella',species:'savignyi',ssfpage:'gonisavi',aliases:'',sizeratio:'4:1',size:'11',bodytype:'Other',backgroundcolor:'Translucent white',lines:'mid-dorsal longitudinal Yellow/brown line on ridge crest',spots:'opaque white specs',rings:'',margins:'Yellow/brown margin on anteriar and lateral mantle',dorsalstruc:'Raised mantle, medial ridge and 2 cerata behind gills',dorsalstrucdetail:'White with yellow/brown tips',oralapp:'None',rhinophoreshape:'Simple',rhinophoredetail:'White with yellow/brown tips',gillshape:'Cylindrical',gills:'White with yellow/brown tips',nameinfo:'savignyi:French naturalist Jules-César Savigny',otherinfo:'',food:'',order:'DORIDIDA',family:'Goniodorididae',described:'Pruvot-Fol, 1933',name:'Longhorn pump dorid',distribution:'northern KwaZulu-Natal, Indo-West and central Pacific',depthrange:'5m-15m',similarsp:'Goniodoridella sp.',distinctiveattr:'central yellow ridge and yellow marginal band',habitat:'Under coral rubble on reefs',description:'A small white dorid with a yellow ridge down the centre of the notum and a yellow margin. Head white with a yellow anterior margin and a pair of smooth yellow cephalic tentacles. Rhinophores smooth, elongated and white. Gills insignificant and opaque white, may have yellow tips. Posterior end of foot tapered, white.',photodate:'',wormsid:'533842',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'IMG_0410.jpg',photographer:'R. Marx',genus:'Pelagella',species:'longicornis',ssfpage:'gonisp1',aliases:'sp.2 [Gosliner et al.]',sizeratio:'4:1',size:'7',bodytype:'Other',backgroundcolor:'Opaque white',lines:'',spots:'Brownish specks close to foot edge and side of mantle',rings:'',margins:'brownish, sometimes broken foot-margin made up of small specks.',dorsalstruc:'Raised mantle',dorsalstrucdetail:'',oralapp:'A pair of brown Cephalic Tentacles with orange bases',rhinophoreshape:'Lamellate',rhinophoredetail:'Translucent white, brownish tip',gillshape:'Cabbage',gills:'White',nameinfo:'pelagella:open sea, longicornis: long horns',otherinfo:'',food:'',order:'DORIDIDA',family:'Goniodorididae',described:'Smirnoff, Gosliner &amp; Pola, 2023',name:'Burnt-edged pump dorid',distribution:'central and northern KwaZulu-Natal, Mozambique, Indo-West Pacific',depthrange:'0m-12m',similarsp:'Diaphorodoris mitsuii',distinctiveattr:'lack of tubercles on the notum',habitat:'',description:'A tiny white-bodied dorid with a white ridge surrounding the upper notum and dark orange-brown and yellow marginal bands. White rhinophores with brown edging and may have yellow shading. A pair of brown cephalic tentacles with orange at their bases. Gills white. Marginal bands of varying widths. Posterior white, tapered, with burnt orange marginal band and yellow submarginal band.',photodate:'03 Oct 2019',wormsid:'1663409',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="176" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1121</v>
       </c>
       <c r="B176">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="C176" t="s">
-        <v>1413</v>
+        <v>208</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1580</v>
+        <v>205</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1590</v>
+        <v>206</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>1591</v>
+        <v>207</v>
       </c>
       <c r="G176" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Pelagella longicornis</v>
+        <v>Bullina oblonga</v>
       </c>
       <c r="H176" t="s">
-        <v>1592</v>
+        <v>1326</v>
       </c>
       <c r="I176" t="s">
-        <v>1593</v>
+        <v>209</v>
       </c>
       <c r="J176">
-        <v>1663409</v>
+        <v>510951</v>
       </c>
       <c r="K176">
         <v>4</v>
       </c>
       <c r="L176">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="M176" t="s">
-        <v>1594</v>
+        <v>210</v>
       </c>
       <c r="N176" t="s">
-        <v>1595</v>
+        <v>211</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>1596</v>
-      </c>
-      <c r="P176" t="s">
-        <v>1597</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>1598</v>
+        <v>1611</v>
+      </c>
+      <c r="Q176" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="R176" t="s">
+        <v>212</v>
       </c>
       <c r="S176" t="s">
-        <v>737</v>
+        <v>213</v>
       </c>
       <c r="T176" t="s">
-        <v>738</v>
+        <v>214</v>
       </c>
       <c r="U176" t="s">
-        <v>28</v>
-      </c>
-      <c r="V176" s="10">
-        <v>43741</v>
-      </c>
-      <c r="W176" t="s">
-        <v>739</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="V176"/>
       <c r="X176" t="s">
-        <v>215</v>
+        <v>1704</v>
       </c>
       <c r="Y176" t="s">
-        <v>740</v>
-      </c>
-      <c r="AA176" t="s">
-        <v>741</v>
-      </c>
-      <c r="AC176" t="s">
-        <v>742</v>
+        <v>186</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>216</v>
       </c>
       <c r="AD176" t="s">
-        <v>743</v>
-      </c>
-      <c r="AF176" t="s">
-        <v>1600</v>
-      </c>
-      <c r="AG176" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH176" t="s">
-        <v>744</v>
-      </c>
-      <c r="AI176" t="s">
-        <v>408</v>
-      </c>
-      <c r="AJ176" t="s">
-        <v>148</v>
+        <v>217</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>218</v>
       </c>
       <c r="AK176" t="s">
-        <v>1601</v>
+        <v>221</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>219</v>
       </c>
       <c r="AN176" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'IMG_0410.jpg',photographer:'R. Marx',genus:'Pelagella',species:'longicornis',ssfpage:'gonisp1',aliases:'sp.2 [Gosliner et al.]',sizeratio:'4:1',size:'7',bodytype:'Other',backgroundcolor:'Opaque white',lines:'',spots:'Brownish specks close to foot edge and side of mantle',rings:'',margins:'brownish, sometimes broken foot-margin made up of small specks.',dorsalstruc:'Raised mantle',dorsalstrucdetail:'',oralapp:'A pair of brown Cephalic Tentacles with orange bases',rhinophoreshape:'Lamellate',rhinophoredetail:'Translucent white, brownish tip',gillshape:'Cabbage',gills:'White',nameinfo:'pelagella:open sea, longicornis: long horns',otherinfo:'',food:'',order:'DORIDIDA',family:'Goniodorididae',described:'Smirnoff, Gosliner &amp; Pola, 2023',name:'Burnt-edged pump dorid',distribution:'central and northern KwaZulu-Natal, Mozambique, Indo-West Pacific',depthrange:'0m-12m',similarsp:'Diaphorodoris mitsuii',distinctiveattr:'lack of tubercles on the notum',habitat:'',description:'A tiny white-bodied dorid with a white ridge surrounding the upper notum and dark orange-brown and yellow marginal bands. White rhinophores with brown edging and may have yellow shading. A pair of brown cephalic tentacles with orange at their bases. Gills white. Marginal bands of varying widths. Posterior white, tapered, with burnt orange marginal band and yellow submarginal band.',photodate:'03 Oct 2019',wormsid:'1663409',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'pl015.jpg',photographer:'P. Laubscher',genus:'Bullina',species:'oblonga',ssfpage:'bulloblo',aliases:'',sizeratio:'4:1',size:'60',bodytype:'Snail',backgroundcolor:'white',lines:'red',spots:'',rings:'',margins:'',dorsalstruc:'Shell',dorsalstrucdetail:'external shell',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'oblonga:elongated',otherinfo:'Not a nudibranch',food:'polychaete worms',order:'CEPHALASPIDEA',family:'Bullinidae',described:'G.B. Sowerby III, 1897',name:'Candy stripe bubble snail',distribution:'southern KwaZulu-Natal, Mozambique',depthrange:'0m-36m',similarsp:'',distinctiveattr:'red lines along edge of shell',habitat:'coarse sand',description:'A medium- to large-sized bubble snail with an elongate ridged white shell. Shell covered with many fine more or less wavy red lines; base of shell with multiple linear red bands. Head with two dark eyes. Body translucent with opaque bluish to pale yellow margin.',photodate:'',wormsid:'510951',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="177" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1121</v>
       </c>
       <c r="B177">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="C177" t="s">
-        <v>208</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>205</v>
+        <v>1186</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1187</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>206</v>
+        <v>1188</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>207</v>
+        <v>1189</v>
       </c>
       <c r="G177" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Bullina oblonga</v>
+        <v>Cystiscus minutissimus</v>
       </c>
       <c r="H177" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="I177" t="s">
-        <v>209</v>
+        <v>1190</v>
       </c>
       <c r="J177">
-        <v>510951</v>
+        <v>555107</v>
       </c>
       <c r="K177">
         <v>4</v>
       </c>
       <c r="L177">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="M177" t="s">
-        <v>210</v>
+        <v>1191</v>
       </c>
       <c r="N177" t="s">
-        <v>211</v>
-      </c>
-      <c r="O177" s="4" t="s">
-        <v>1611</v>
-      </c>
-      <c r="Q177" s="4" t="s">
-        <v>1146</v>
+        <v>1192</v>
+      </c>
+      <c r="O177" t="s">
+        <v>1193</v>
       </c>
       <c r="R177" t="s">
-        <v>212</v>
-      </c>
-      <c r="S177" t="s">
-        <v>213</v>
+        <v>1194</v>
       </c>
       <c r="T177" t="s">
-        <v>214</v>
+        <v>365</v>
       </c>
       <c r="U177" t="s">
-        <v>59</v>
-      </c>
-      <c r="V177"/>
+        <v>28</v>
+      </c>
+      <c r="V177" s="10">
+        <v>41981</v>
+      </c>
       <c r="X177" t="s">
-        <v>1704</v>
+        <v>215</v>
       </c>
       <c r="Y177" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z177" t="s">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="AD177" t="s">
         <v>217</v>
       </c>
       <c r="AE177" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK177" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL177" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM177" t="s">
-        <v>219</v>
+        <v>367</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL177" s="3" t="s">
+        <v>1195</v>
       </c>
       <c r="AN177" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'pl015.jpg',photographer:'P. Laubscher',genus:'Bullina',species:'oblonga',ssfpage:'bulloblo',aliases:'',sizeratio:'4:1',size:'60',bodytype:'Snail',backgroundcolor:'white',lines:'red',spots:'',rings:'',margins:'',dorsalstruc:'Shell',dorsalstrucdetail:'external shell',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'oblonga:elongated',otherinfo:'Not a nudibranch',food:'polychaete worms',order:'CEPHALASPIDEA',family:'Bullinidae',described:'G.B. Sowerby III, 1897',name:'Candy stripe bubble snail',distribution:'southern KwaZulu-Natal, Mozambique',depthrange:'0m-36m',similarsp:'',distinctiveattr:'red lines along edge of shell',habitat:'coarse sand',description:'A medium- to large-sized bubble snail with an elongate ridged white shell. Shell covered with many fine more or less wavy red lines; base of shell with multiple linear red bands. Head with two dark eyes. Body translucent with opaque bluish to pale yellow margin.',photodate:'',wormsid:'510951',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'IMG_5510-2.jpg',photographer:'R. Marx',genus:'Cystiscus',species:'minutissimus',ssfpage:'',aliases:'',sizeratio:'4:1',size:'6',bodytype:'Other',backgroundcolor:'orange/brown',lines:'',spots:'',rings:'',margins:'',dorsalstruc:'Shell',dorsalstrucdetail:'white/cream-orange shell partially coverred by mantle',oralapp:'',rhinophoreshape:'Rolled',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'',otherinfo:'',food:'bryozoans (Amathia bisericata)',order:'NEOGASTROPODA',family:'Cystiscidae',described:'Tenison Woods, 1876',name:'Orange snail',distribution:'Australia, specifically the Southeast Australian Shelf and Tasmania, with occurrences also noted in Bali, Indonesia, the Indian Ocean, the Philippines, and Raja Ampat. ',depthrange:'1m-370m',similarsp:'',distinctiveattr:'',habitat:'On and around bryozoan corals',description:'Cystiscus minutissimus is an orange colored sea snail, characterized by a minute, glossy, white, and hyaline shell that ranges from 1 to 6 mm in length, with an ovoid or elliptic shape and a low or completely immersed spire',photodate:'08 Dec 2014',wormsid:'555107',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1121</v>
       </c>
       <c r="B178">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="C178" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1187</v>
+        <v>2090</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>2320</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1188</v>
+        <v>1018</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1189</v>
+        <v>1019</v>
       </c>
       <c r="G178" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Cystiscus minutissimus</v>
+        <v>Sagaminopteron psychedelicum</v>
       </c>
       <c r="H178" t="s">
-        <v>1318</v>
+        <v>2321</v>
       </c>
       <c r="I178" t="s">
-        <v>1190</v>
-      </c>
-      <c r="J178">
-        <v>555107</v>
+        <v>2460</v>
+      </c>
+      <c r="J178" s="11">
+        <v>599450</v>
       </c>
       <c r="K178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L178">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M178" t="s">
-        <v>1191</v>
+        <v>1306</v>
       </c>
       <c r="N178" t="s">
-        <v>1192</v>
-      </c>
-      <c r="O178" t="s">
-        <v>1193</v>
-      </c>
-      <c r="R178" t="s">
-        <v>1194</v>
+        <v>1237</v>
+      </c>
+      <c r="O178" s="4" t="s">
+        <v>2461</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>2462</v>
+      </c>
+      <c r="S178" t="s">
+        <v>1020</v>
       </c>
       <c r="T178" t="s">
-        <v>365</v>
+        <v>1021</v>
       </c>
       <c r="U178" t="s">
-        <v>28</v>
-      </c>
-      <c r="V178" s="10">
-        <v>41981</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="V178"/>
       <c r="X178" t="s">
         <v>215</v>
       </c>
       <c r="Y178" t="s">
-        <v>366</v>
+        <v>2107</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>2463</v>
       </c>
       <c r="AD178" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE178" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="AG178" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL178" s="3" t="s">
-        <v>1195</v>
+        <v>537</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>2466</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>100</v>
       </c>
       <c r="AN178" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'IMG_5510-2.jpg',photographer:'R. Marx',genus:'Cystiscus',species:'minutissimus',ssfpage:'',aliases:'',sizeratio:'4:1',size:'6',bodytype:'Other',backgroundcolor:'orange/brown',lines:'',spots:'',rings:'',margins:'',dorsalstruc:'Shell',dorsalstrucdetail:'white/cream-orange shell partially coverred by mantle',oralapp:'',rhinophoreshape:'Rolled',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'',otherinfo:'',food:'bryozoans (Amathia bisericata)',order:'NEOGASTROPODA',family:'Cystiscidae',described:'Tenison Woods, 1876',name:'Orange snail',distribution:'Australia, specifically the Southeast Australian Shelf and Tasmania, with occurrences also noted in Bali, Indonesia, the Indian Ocean, the Philippines, and Raja Ampat. ',depthrange:'1m-370m',similarsp:'',distinctiveattr:'',habitat:'On and around bryozoan corals',description:'Cystiscus minutissimus is an orange colored sea snail, characterized by a minute, glossy, white, and hyaline shell that ranges from 1 to 6 mm in length, with an ovoid or elliptic shape and a low or completely immersed spire',photodate:'08 Dec 2014',wormsid:'555107',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'pl035.jpg',photographer:'P. Laubscher',genus:'Sagaminopteron',species:'psychedelicum',ssfpage:'sagapsyc',aliases:'',sizeratio:'3:1',size:'20',bodytype:'Other',backgroundcolor:'cream/white',lines:'',spots:'yellow patches',rings:'black rings around yellow patches',margins:'cream',dorsalstruc:'Parapodia',dorsalstrucdetail:'',oralapp:'',rhinophoreshape:'papillate',rhinophoredetail:'translucent with white papillae',gillshape:'',gills:'',nameinfo:'psychedelic color pattern',otherinfo:'',food:'Sponges',order:'CEPHALASPEDIA',family:'Gastropteridae',described:'Carlson &amp; Hoff, 1974',name:'Psychedelic batwing',distribution:'northern KwaZulu-Natal, southern Mozambique, widespread Indo-Pacific',depthrange:'0m-25m',similarsp:'',distinctiveattr:'Patterning is diagnostic',habitat:'',description:'A small headshield slug, pale blue and covered with green-edged pink to brown markings. Sensory siphon transparent with opaque white blotches, resembling an antenna. Parapodia with a pink marginal band.',photodate:'',wormsid:'599450',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="179" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1121</v>
       </c>
       <c r="B179">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="C179" t="s">
         <v>2090</v>
@@ -28989,247 +28942,247 @@
         <v>2320</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="G179" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Sagaminopteron psychedelicum</v>
+        <v>Siphopteron brunneomarginatum</v>
       </c>
       <c r="H179" t="s">
         <v>2321</v>
       </c>
       <c r="I179" t="s">
-        <v>2460</v>
+        <v>2322</v>
       </c>
       <c r="J179" s="11">
-        <v>599450</v>
+        <v>599451</v>
       </c>
       <c r="K179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L179">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M179" t="s">
-        <v>1306</v>
+        <v>2323</v>
       </c>
       <c r="N179" t="s">
-        <v>1237</v>
+        <v>2324</v>
       </c>
       <c r="O179" s="4" t="s">
-        <v>2461</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>2462</v>
+        <v>2325</v>
+      </c>
+      <c r="Q179" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="R179" t="s">
+        <v>84</v>
       </c>
       <c r="S179" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="T179" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="U179" t="s">
-        <v>59</v>
-      </c>
-      <c r="V179"/>
+        <v>28</v>
+      </c>
+      <c r="V179" s="10">
+        <v>38885</v>
+      </c>
       <c r="X179" t="s">
         <v>215</v>
       </c>
       <c r="Y179" t="s">
-        <v>2107</v>
-      </c>
-      <c r="AA179" t="s">
-        <v>2465</v>
-      </c>
-      <c r="AB179" t="s">
-        <v>2464</v>
+        <v>1026</v>
       </c>
       <c r="AC179" t="s">
-        <v>2463</v>
+        <v>1027</v>
       </c>
       <c r="AD179" t="s">
         <v>117</v>
       </c>
-      <c r="AG179" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH179" t="s">
-        <v>2437</v>
+      <c r="AE179" t="s">
+        <v>2327</v>
       </c>
       <c r="AK179" t="s">
-        <v>2466</v>
-      </c>
-      <c r="AL179" t="s">
-        <v>100</v>
+        <v>2328</v>
       </c>
       <c r="AN179" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'pl035.jpg',photographer:'P. Laubscher',genus:'Sagaminopteron',species:'psychedelicum',ssfpage:'sagapsyc',aliases:'',sizeratio:'3:1',size:'20',bodytype:'Other',backgroundcolor:'cream/white',lines:'',spots:'yellow patches',rings:'black rings around yellow patches',margins:'cream',dorsalstruc:'Parapodia',dorsalstrucdetail:'',oralapp:'',rhinophoreshape:'papillate',rhinophoredetail:'translucent with white papillae',gillshape:'',gills:'',nameinfo:'psychedelic color pattern',otherinfo:'',food:'Sponges',order:'CEPHALASPEDIA',family:'Gastropteridae',described:'Carlson &amp; Hoff, 1974',name:'Psychedelic batwing',distribution:'northern KwaZulu-Natal, southern Mozambique, widespread Indo-Pacific',depthrange:'0m-25m',similarsp:'',distinctiveattr:'Patterning is diagnostic',habitat:'',description:'A small headshield slug, pale blue and covered with green-edged pink to brown markings. Sensory siphon transparent with opaque white blotches, resembling an antenna. Parapodia with a pink marginal band.',photodate:'',wormsid:'599450',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'DSCN4305.jpg',photographer:'R. Marx',genus:'Siphopteron',species:'brunneomarginatum',ssfpage:'siphbrun',aliases:'',sizeratio:'4:1',size:'5',bodytype:'Other',backgroundcolor:'Pale yellow',lines:'',spots:'',rings:'',margins:'Brown margin on parapodia',dorsalstruc:'Parapodia',dorsalstrucdetail:'Yellow, brown margin',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'brunnea:brown, marginatum: margin',otherinfo:'',food:'',order:'CEPHALASPEDIA',family:'Gastropteridae',described:'Carlson &amp; Hoff, 1974',name:'Brown-edged batwing',distribution:'northern KwaZulu-Natal, southern Mozambique, Indian Ocean',depthrange:'9m-23m',similarsp:'',distinctiveattr:'continuous parapodial brown margin and dark brown line that continues onto the flagellum distinguish this species',habitat:'rocky reefs',description:'A tiny lemon yellow headshield slug with dark brown lines and margins to headshield, parapodia and on the central body; posterior end of headshield brown, sensory siphon yellow, tipped with brown. Brown marking on posterior shield that extends onto the flagellum. Posterior end of foot tapered, yellow.',photodate:'17 Jun 2006',wormsid:'599451',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="180" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1121</v>
       </c>
       <c r="B180">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="C180" t="s">
-        <v>2090</v>
+        <v>469</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>2320</v>
+        <v>2527</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1022</v>
+        <v>1112</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>1023</v>
+        <v>364</v>
       </c>
       <c r="G180" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Siphopteron brunneomarginatum</v>
-      </c>
-      <c r="H180" t="s">
-        <v>2321</v>
+        <v>Volvatella sp.</v>
       </c>
       <c r="I180" t="s">
-        <v>2322</v>
-      </c>
-      <c r="J180" s="11">
-        <v>599451</v>
+        <v>2528</v>
       </c>
       <c r="K180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M180" t="s">
-        <v>2323</v>
+        <v>2074</v>
       </c>
       <c r="N180" t="s">
-        <v>2324</v>
+        <v>2529</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>2325</v>
-      </c>
-      <c r="Q180" s="4" t="s">
-        <v>2326</v>
+        <v>2530</v>
+      </c>
+      <c r="P180" t="s">
+        <v>2531</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>2532</v>
       </c>
       <c r="R180" t="s">
-        <v>84</v>
+        <v>2533</v>
       </c>
       <c r="S180" t="s">
-        <v>1024</v>
+        <v>1113</v>
       </c>
       <c r="T180" t="s">
-        <v>1025</v>
+        <v>1114</v>
       </c>
       <c r="U180" t="s">
-        <v>28</v>
-      </c>
-      <c r="V180" s="10">
-        <v>38885</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="V180"/>
       <c r="X180" t="s">
         <v>215</v>
       </c>
       <c r="Y180" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AC180" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AD180" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE180" t="s">
-        <v>2327</v>
-      </c>
-      <c r="AK180" t="s">
-        <v>2328</v>
+        <v>186</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>2535</v>
       </c>
       <c r="AN180" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'DSCN4305.jpg',photographer:'R. Marx',genus:'Siphopteron',species:'brunneomarginatum',ssfpage:'siphbrun',aliases:'',sizeratio:'4:1',size:'5',bodytype:'Other',backgroundcolor:'Pale yellow',lines:'',spots:'',rings:'',margins:'Brown margin on parapodia',dorsalstruc:'Parapodia',dorsalstrucdetail:'Yellow, brown margin',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'brunnea:brown, marginatum: margin',otherinfo:'',food:'',order:'CEPHALASPEDIA',family:'Gastropteridae',described:'Carlson &amp; Hoff, 1974',name:'Brown-edged batwing',distribution:'northern KwaZulu-Natal, southern Mozambique, Indian Ocean',depthrange:'9m-23m',similarsp:'',distinctiveattr:'continuous parapodial brown margin and dark brown line that continues onto the flagellum distinguish this species',habitat:'rocky reefs',description:'A tiny lemon yellow headshield slug with dark brown lines and margins to headshield, parapodia and on the central body; posterior end of headshield brown, sensory siphon yellow, tipped with brown. Brown marking on posterior shield that extends onto the flagellum. Posterior end of foot tapered, yellow.',photodate:'17 Jun 2006',wormsid:'599451',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'co025.jpg',photographer:'C. Ogden',genus:'Volvatella',species:'sp.',ssfpage:'volvsp1',aliases:'',sizeratio:'3:1',size:'8',bodytype:'Other',backgroundcolor:'white',lines:'',spots:'brown spots',rings:'',margins:'',dorsalstruc:'',dorsalstrucdetail:'',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'',otherinfo:'',food:'',order:'SACOGLOSSA',family:'Volvatellidae',described:'',name:'Freckled siphon shell',distribution:'northern KwaZulu-Natal, western Pacific',depthrange:'22m',similarsp:'Volvatella spp.',distinctiveattr:'sparse brown spots and elongate siphon',habitat:'in association with the green seaweed Caulerpa racemosa',description:'A tiny brown-spotted cream-shelled sap-sucker. Shell cylindrical with bulbous posterior narrowing to an elongated siphon. Headshield much shorter than shell with a pair of triangular lobes, dark eyes. Body translucent white with dense opaque white speckling.',photodate:'',wormsid:'',reviewed:'Y'});</v>
       </c>
     </row>
-    <row r="181" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1121</v>
       </c>
       <c r="B181">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="C181" t="s">
-        <v>469</v>
+        <v>31</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>2527</v>
+        <v>238</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1112</v>
+        <v>2546</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>364</v>
+        <v>2544</v>
       </c>
       <c r="G181" s="2" t="str">
         <f>CONCATENATE(Nudibranchdata[[#This Row],[Genus]]," ",Nudibranchdata[[#This Row],[Species]])</f>
-        <v>Volvatella sp.</v>
+        <v>Glaucilla marginatus</v>
+      </c>
+      <c r="H181" t="s">
+        <v>2547</v>
       </c>
       <c r="I181" t="s">
-        <v>2528</v>
+        <v>2545</v>
+      </c>
+      <c r="J181" s="11">
+        <v>534056</v>
       </c>
       <c r="K181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L181">
-        <v>8</v>
-      </c>
-      <c r="M181" t="s">
-        <v>2074</v>
+        <v>20</v>
+      </c>
+      <c r="M181" s="4" t="s">
+        <v>2548</v>
       </c>
       <c r="N181" t="s">
-        <v>2529</v>
+        <v>1348</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>2530</v>
+        <v>2549</v>
       </c>
       <c r="P181" t="s">
-        <v>2531</v>
+        <v>2550</v>
       </c>
       <c r="Q181" t="s">
-        <v>2532</v>
+        <v>2551</v>
       </c>
       <c r="R181" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="S181" t="s">
-        <v>1113</v>
+        <v>2552</v>
       </c>
       <c r="T181" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="U181" t="s">
-        <v>293</v>
+        <v>1120</v>
       </c>
       <c r="V181"/>
       <c r="X181" t="s">
-        <v>215</v>
+        <v>2537</v>
       </c>
       <c r="Y181" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA181" t="s">
-        <v>2535</v>
+        <v>2539</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>2538</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>2541</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>2445</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>2540</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>2543</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>2542</v>
       </c>
       <c r="AN181" t="str">
         <f>CONCATENATE("addSpec(template,{photo:'",Nudibranchdata[[#This Row],[Photo]],"',photographer:'",Nudibranchdata[[#This Row],[Photographer]],"',genus:'",Nudibranchdata[[#This Row],[Genus]],"',species:'",Nudibranchdata[[#This Row],[Species]],"',ssfpage:'",Nudibranchdata[[#This Row],[SSF FS page]],"',aliases:'",Nudibranchdata[[#This Row],[Synonym names]],"',sizeratio:'",Nudibranchdata[[#This Row],[L:W]],":1',size:'",Nudibranchdata[[#This Row],[Size(mm)]],"',bodytype:'",Nudibranchdata[[#This Row],[Body Type]],"',backgroundcolor:'",Nudibranchdata[[#This Row],[Background color]],"',lines:'",Nudibranchdata[[#This Row],[Lines]],"',spots:'",Nudibranchdata[[#This Row],[Spots/patches]],"',rings:'",Nudibranchdata[[#This Row],[Rings/bands]],"',margins:'",Nudibranchdata[[#This Row],[Margins]],"',dorsalstruc:'",Nudibranchdata[[#This Row],[Dorsal structures]],"',dorsalstrucdetail:'",Nudibranchdata[[#This Row],[Dorsal structure detail]],"',oralapp:'",Nudibranchdata[[#This Row],[Oral/cephalic Appendices]],"',rhinophoreshape:'",Nudibranchdata[[#This Row],[Rhinophore shapes]],"',rhinophoredetail:'",Nudibranchdata[[#This Row],[Rhinophore-detail]],"',gillshape:'",Nudibranchdata[[#This Row],[Gills shapes]],"',gills:'",Nudibranchdata[[#This Row],[Gills]],"',nameinfo:'",Nudibranchdata[[#This Row],[Etymology]],"',otherinfo:'",Nudibranchdata[[#This Row],[Other-Interesting-facts]],"',food:'",Nudibranchdata[[#This Row],[Food]],"',order:'",Nudibranchdata[[#This Row],[Order]],"',family:'",Nudibranchdata[[#This Row],[Family]],"',described:'",Nudibranchdata[[#This Row],[Described]],"',name:'",Nudibranchdata[[#This Row],[English name]],"',distribution:'",Nudibranchdata[[#This Row],[Distribution]],"',depthrange:'",Nudibranchdata[[#This Row],[Depth]],"',similarsp:'",Nudibranchdata[[#This Row],[Similar species]],"',distinctiveattr:'",Nudibranchdata[[#This Row],[Distinctive attribute]],"',habitat:'",Nudibranchdata[[#This Row],[Habitat]],"',description:'",Nudibranchdata[[#This Row],[Description]],"',photodate:'",IF(Nudibranchdata[[#This Row],[PhotoDate]]="","",TEXT(Nudibranchdata[[#This Row],[PhotoDate]],"dd mmm yyyy")),"',wormsid:'",Nudibranchdata[[#This Row],[WRMS ID]],"',reviewed:'",Nudibranchdata[[#This Row],[Reviewed]],"'});")</f>
-        <v>addSpec(template,{photo:'co025.jpg',photographer:'C. Ogden',genus:'Volvatella',species:'sp.',ssfpage:'volvsp1',aliases:'',sizeratio:'3:1',size:'8',bodytype:'Other',backgroundcolor:'white',lines:'',spots:'brown spots',rings:'',margins:'',dorsalstruc:'',dorsalstrucdetail:'',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'',otherinfo:'',food:'',order:'SACOGLOSSA',family:'Volvatellidae',described:'',name:'Freckled siphon shell',distribution:'northern KwaZulu-Natal, western Pacific',depthrange:'22m',similarsp:'Volvatella spp.',distinctiveattr:'sparse brown spots and elongate siphon',habitat:'in association with the green seaweed Caulerpa racemosa',description:'A tiny brown-spotted cream-shelled sap-sucker. Shell cylindrical with bulbous posterior narrowing to an elongated siphon. Headshield much shorter than shell with a pair of triangular lobes, dark eyes. Body translucent white with dense opaque white speckling.',photodate:'',wormsid:'',reviewed:'Y'});</v>
+        <v>addSpec(template,{photo:'am001.jpg',photographer:'A. Marx',genus:'Glaucilla',species:'marginatus',ssfpage:'glaumarg',aliases:'',sizeratio:'4:1',size:'20',bodytype:'other',backgroundcolor:'blue/white',lines:'blue',spots:'',rings:'blue bands on cerata',margins:'',dorsalstruc:'cerata',dorsalstrucdetail:'blue bands',oralapp:'',rhinophoreshape:'',rhinophoredetail:'',gillshape:'',gills:'',nameinfo:'atlanticus:atlantic ocean',otherinfo:'',food:'Blue-bottles/potuegese man-o-war',order:'NUDIBRANCHIA',family:'Glaucidae',described:'Reinhardt &amp; Bergh, 1854',name:'Indo-Pacific sea swallow',distribution:'southern Mozambique, Indo-Pacific',depthrange:'0m',similarsp:'Glaucus atlanticus',distinctiveattr:'multiple rows of cerata extending from each appendage',habitat:'pelagic',description:'A small blue- and silver-bodied aeolid with distinctive blue cerata arranged in spreading rays of several branches. Head dark bright blue with lateral silver stripes. Short smooth blue-tipped oral tentacles and rhinophores. Notum and cerata silver. Foot with central dark blue stripe, transparent silver at sides; may have dark blue speckling. Cerata extend from three translucent appendages in multiple rows. Posterior end of foot slender, tapered, dark blue.',photodate:'',wormsid:'534056',reviewed:'Y'});</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.25">
@@ -29237,7 +29190,7 @@
         <v>1857</v>
       </c>
       <c r="B182">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>1115</v>
@@ -29273,88 +29226,78 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A21 A27">
-    <cfRule type="expression" dxfId="22" priority="80">
+    <cfRule type="expression" dxfId="20" priority="80">
       <formula>AF21="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="expression" dxfId="21" priority="83">
+    <cfRule type="expression" dxfId="19" priority="83">
       <formula>#REF!="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="20" priority="82">
+    <cfRule type="expression" dxfId="18" priority="82">
       <formula>AM74="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B2 A15:B15 A19:A27 A28:B32 B101:B182 B2:B44 B46:B99">
-    <cfRule type="expression" dxfId="19" priority="73">
+  <conditionalFormatting sqref="A2:B2 A15:B15 A19:A27 A28:B32 B2:B44 B46:B99 B101:B182">
+    <cfRule type="expression" dxfId="17" priority="73">
       <formula>AJ2="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B14 D3:D14 A16:B16 D16:D18 A17:A18 A75:A76 A77:B79 A81:B88 A167:B175 A177:B179 D177:D179 B101:B182 A90:B99 A101:B165 D90:D99 D101:D165 A33:B44 A46:B73 D33:D44 D46:D88 B3:B44 B46:B99">
-    <cfRule type="expression" dxfId="18" priority="14">
+  <conditionalFormatting sqref="A3:B14 D3:D14 A16:B16 D16:D18 A17:A18 A75:A76 A77:B79 A81:B88 A176:B178 D176:D178 A90:B99 D90:D99 A33:B44 A46:B73 D33:D44 D46:D88 B3:B44 B46:B99 A101:B165 D101:D165 A167:B174 A181:B181 B110:B182 D167:D174 D181">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>AM3="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>AG30="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>AN166="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B174">
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>AN174="Complete"</formula>
+  <conditionalFormatting sqref="B173">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>AN173="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B176:B181">
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>AN176="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C14 C16:C18 C177:C180 C90:C99 C101:C175 C33:C44 C46:C88">
-    <cfRule type="expression" dxfId="13" priority="13">
+  <conditionalFormatting sqref="C3:C14 C16:C18 C176:C179 C90:C99 C33:C44 C46:C88 C101:C174 C181">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>AN3="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C19:C20">
-    <cfRule type="expression" dxfId="12" priority="79">
+    <cfRule type="expression" dxfId="11" priority="79">
       <formula>AK15="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21 C27">
-    <cfRule type="expression" dxfId="11" priority="68">
+    <cfRule type="expression" dxfId="10" priority="68">
       <formula>AG21="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 D19:D21">
-    <cfRule type="expression" dxfId="10" priority="69">
+    <cfRule type="expression" dxfId="9" priority="69">
       <formula>AG15="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="expression" dxfId="9" priority="66">
+    <cfRule type="expression" dxfId="8" priority="66">
       <formula>AG23="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="8" priority="77">
+    <cfRule type="expression" dxfId="7" priority="77">
       <formula>AF25="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D29">
-    <cfRule type="expression" dxfId="7" priority="59">
+    <cfRule type="expression" dxfId="6" priority="59">
       <formula>AG26="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D167:D175">
-    <cfRule type="expression" dxfId="6" priority="56">
-      <formula>AP167="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100 A100:B100">
@@ -29410,7 +29353,7 @@
     <hyperlink ref="S115" r:id="rId20" display="http://www.seaslugforum.net/find/chelelec" xr:uid="{B1C17E17-1D70-4336-8D90-13FB18299493}"/>
     <hyperlink ref="S117" r:id="rId21" display="http://www.seaslugforum.net/showall/chelpunc" xr:uid="{D1C93B70-92DD-4729-AB0E-7FD16BE411AD}"/>
     <hyperlink ref="S118" r:id="rId22" display="http://www.seaslugforum.net/find/odonguam" xr:uid="{E93436AA-61E2-4ADA-BA54-33A0090A9B51}"/>
-    <hyperlink ref="S180" r:id="rId23" display="http://www.seaslugforum.net/find/siphbrun" xr:uid="{E4C5D841-A7BC-499E-B6BA-2FB215071D8A}"/>
+    <hyperlink ref="S179" r:id="rId23" display="http://www.seaslugforum.net/find/siphbrun" xr:uid="{E4C5D841-A7BC-499E-B6BA-2FB215071D8A}"/>
     <hyperlink ref="S166" r:id="rId24" display="http://www.seaslugforum.net/showall/elysorna" xr:uid="{3A201A47-7C28-4CC9-9318-5C405287899E}"/>
     <hyperlink ref="S169" r:id="rId25" display="http://www.seaslugforum.net/showall/thurkath" xr:uid="{F5D78551-02F2-4E90-A1AC-4892EEF43A9F}"/>
     <hyperlink ref="S172" r:id="rId26" display="http://www.seaslugforum.net/find/thurvirg" xr:uid="{2D98234F-8598-4F1B-8129-0F3B9EFFE56D}"/>
@@ -29418,7 +29361,7 @@
     <hyperlink ref="S15" r:id="rId28" display="http://www.seaslugforum.net/showall/diapmits" xr:uid="{FF0A4756-0237-4ED1-9E0C-E6855D3BEDE8}"/>
     <hyperlink ref="S162" r:id="rId29" display="http://www.seaslugforum.net/find/pteriant" xr:uid="{E0CB933A-CE94-48B9-A0E4-3F7215D05251}"/>
     <hyperlink ref="S130" r:id="rId30" display="http://www.seaslugforum.net/find/robolute" xr:uid="{87167B6D-9BB7-4D14-8E52-9532C98AF09F}"/>
-    <hyperlink ref="S109" r:id="rId31" display="http://www.seaslugforum.net/showall/phylvari" xr:uid="{10205074-81F2-4312-A406-EB9EFF097E9C}"/>
+    <hyperlink ref="S103" r:id="rId31" display="http://www.seaslugforum.net/showall/phylvari" xr:uid="{10205074-81F2-4312-A406-EB9EFF097E9C}"/>
     <hyperlink ref="S104" r:id="rId32" display="http://www.seaslugforum.net/find/phylcoel" xr:uid="{1CD7C7BF-A943-477B-8BE5-E415E6083914}"/>
     <hyperlink ref="S145" r:id="rId33" display="http://www.seaslugforum.net/find/flabrub" xr:uid="{BC743949-380E-443C-86B0-DD16612DBC2C}"/>
     <hyperlink ref="S49" r:id="rId34" display="http://www.seaslugforum.net/find/hypsnigrol" xr:uid="{19E3EC6F-CDA6-4124-B7E7-B844665269E2}"/>
@@ -29438,12 +29381,12 @@
     <hyperlink ref="S107" r:id="rId48" display="http://www.seaslugforum.net/showall/phylocel" xr:uid="{B8EDD240-9049-44AD-9F6B-CBA827EBF733}"/>
     <hyperlink ref="S108" r:id="rId49" display="http://www.seaslugforum.net/find/phylocel" xr:uid="{5305ED6A-7D9A-4D35-B8B7-9D6E2DC31F73}"/>
     <hyperlink ref="S80" r:id="rId50" display="http://www.seaslugforum.net/find/gymnauri" xr:uid="{400AC759-4734-4BB9-A041-748A59FACF11}"/>
-    <hyperlink ref="S103" r:id="rId51" display="http://www.seaslugforum.net/find/phylalyt" xr:uid="{2CADCF88-8F15-4F30-BDEA-514487080684}"/>
+    <hyperlink ref="S109" r:id="rId51" display="http://www.seaslugforum.net/find/phylalyt" xr:uid="{2CADCF88-8F15-4F30-BDEA-514487080684}"/>
     <hyperlink ref="S101" r:id="rId52" display="http://www.seaslugforum.net/find/dorisp1" xr:uid="{9A5219A1-A595-4BB9-A305-4451B01462E0}"/>
     <hyperlink ref="S54" r:id="rId53" display="http://www.seaslugforum.net/find/parasp1" xr:uid="{6E915F94-C9AE-467F-BEBD-29DC408A4FEB}"/>
     <hyperlink ref="S149" r:id="rId54" display="http://www.seaslugforum.net/showall/stilcrem" xr:uid="{4741F252-0AFB-47F3-B06D-0B3331CD3C69}"/>
     <hyperlink ref="S140" r:id="rId55" display="http://www.seaslugforum.net/showall/valdaf6" xr:uid="{DA77CFF8-1241-47BA-8220-3B3F09DB99D9}"/>
-    <hyperlink ref="S174" r:id="rId56" display="http://www.seaslugforum.net/showall/okenbrun" xr:uid="{9D1368AC-4483-4E1D-88AC-AC8F0E139584}"/>
+    <hyperlink ref="S173" r:id="rId56" display="http://www.seaslugforum.net/showall/okenbrun" xr:uid="{9D1368AC-4483-4E1D-88AC-AC8F0E139584}"/>
     <hyperlink ref="S124" r:id="rId57" display="http://www.seaslugforum.net/showall/nemblin" xr:uid="{F90577E7-AF1B-4473-86AA-3FA9BFD8F517}"/>
     <hyperlink ref="S56" r:id="rId58" display="http://www.seaslugforum.net/showall/hypsmard" xr:uid="{706BE915-156E-484D-852E-6C42B51DCE00}"/>
     <hyperlink ref="S52" r:id="rId59" display="http://www.seaslugforum.net/showall/hypsregi" xr:uid="{540BC928-AAC0-467F-B93E-F9E8E2C90D4D}"/>
@@ -29457,7 +29400,7 @@
     <hyperlink ref="S66" r:id="rId67" display="http://www.seaslugforum.net/showall/gloshiku" xr:uid="{4CE0BBF8-D0C2-499B-ACBC-C8A4B8C3FA5C}"/>
     <hyperlink ref="S36" r:id="rId68" display="http://www.seaslugforum.net/showall/hypscarn" xr:uid="{0AD3B2DF-45C9-401B-9626-30C1C3FE80A1}"/>
     <hyperlink ref="S152" r:id="rId69" display="http://www.seaslugforum.net/showall/phylmagn" xr:uid="{824B39F5-609E-4CC4-A6D3-930E732DD5E4}"/>
-    <hyperlink ref="S176" r:id="rId70" display="http://www.seaslugforum.net/showall/gonisp1" xr:uid="{D36DA2FA-0CA8-4647-A093-37C0AE4FB883}"/>
+    <hyperlink ref="S175" r:id="rId70" display="http://www.seaslugforum.net/showall/gonisp1" xr:uid="{D36DA2FA-0CA8-4647-A093-37C0AE4FB883}"/>
     <hyperlink ref="S155" r:id="rId71" display="http://www.seaslugforum.net/showall/flabriwo" xr:uid="{175543CD-37E3-4F32-B57F-7FD3799ECD39}"/>
     <hyperlink ref="S14" r:id="rId72" display="http://www.seaslugforum.net/showall/taricaud" xr:uid="{8EDFEE30-28B6-438C-8084-2B2ED80D8B21}"/>
     <hyperlink ref="S81" r:id="rId73" display="http://www.seaslugforum.net/find/gymncitr" xr:uid="{9682B0B1-23A3-48E5-82EC-C93742741B0A}"/>
@@ -29471,13 +29414,13 @@
     <hyperlink ref="S89" r:id="rId81" display="http://www.seaslugforum.net/showall/denddeni" xr:uid="{3BC1159D-9CFB-497C-9DE9-E525CA51DD22}"/>
     <hyperlink ref="S87" r:id="rId82" display="http://www.seaslugforum.net/showall/dermorna" xr:uid="{A5E95BD9-8721-43B1-B880-8977D218B39A}"/>
     <hyperlink ref="S4" r:id="rId83" display="http://www.seaslugforum.net/showall/diveaura" xr:uid="{7B800156-9DF8-43B0-8C0C-3066270ACDD5}"/>
-    <hyperlink ref="S179" r:id="rId84" display="http://www.seaslugforum.net/showall/sagapsyc" xr:uid="{D2561C0F-E035-4F8D-BD70-52DB1483781A}"/>
+    <hyperlink ref="S178" r:id="rId84" display="http://www.seaslugforum.net/showall/sagapsyc" xr:uid="{D2561C0F-E035-4F8D-BD70-52DB1483781A}"/>
     <hyperlink ref="S91" r:id="rId85" display="http://www.seaslugforum.net/showall/dendnigr" xr:uid="{33A9B3EA-192F-4EFC-A5D9-0BB22D100155}"/>
     <hyperlink ref="S12" r:id="rId86" display="http://www.seaslugforum.net/showall/noumsim" xr:uid="{772273C5-931F-4C53-8328-66391B4D2DDE}"/>
     <hyperlink ref="S112" r:id="rId87" display="http://www.seaslugforum.net/showall/phylgemm" xr:uid="{B421E41E-E8FD-4B07-8FD3-364F5303E095}"/>
     <hyperlink ref="S168" r:id="rId88" display="http://www.seaslugforum.net/showall/elyssp11" xr:uid="{3DB586D9-1A21-4441-A2C1-CF2F8F996F58}"/>
     <hyperlink ref="S27" r:id="rId89" display="http://www.seaslugforum.net/find/chrocava" xr:uid="{396D0AEA-12C3-427D-9B50-621B20206DB4}"/>
-    <hyperlink ref="S175" r:id="rId90" display="http://www.seaslugforum.net/showall/gonisavi" xr:uid="{96977128-1B69-49B2-BF7D-76EF227E5E98}"/>
+    <hyperlink ref="S174" r:id="rId90" display="http://www.seaslugforum.net/showall/gonisavi" xr:uid="{96977128-1B69-49B2-BF7D-76EF227E5E98}"/>
     <hyperlink ref="S100" r:id="rId91" display="http://www.seaslugforum.net/showall/joruparv" xr:uid="{759A8978-4FAD-41D8-BB85-88B1DC2BBD49}"/>
     <hyperlink ref="S45" r:id="rId92" display="http://www.seaslugforum.net/showall/chroafri" xr:uid="{64F2DC76-5CFB-4222-ADFC-6A1C8A02B29C}"/>
   </hyperlinks>
@@ -30310,16 +30253,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF1D7420-59C9-437B-8578-CCDE3D0C4CED}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="55241b18-e60a-4732-8888-13bba6f5439f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="f169aafa-74cd-4143-b06b-0973a3c2d9c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="55241b18-e60a-4732-8888-13bba6f5439f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
